--- a/spliced/falling/2023-03-25_17-55-35/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-55-35/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,17 +670,6 @@
         <v>0.5522446408867842</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>0.1567803621292113</v>
-      </c>
-      <c r="B22" t="n">
-        <v>2.781254351139069</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.9996474064886576</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/spliced/falling/2023-03-25_17-55-35/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-55-35/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.6303038597106934</v>
+        <v>-0.7812347412109375</v>
       </c>
       <c r="B2" t="n">
-        <v>2.39460033774376</v>
+        <v>2.500675392150879</v>
       </c>
       <c r="C2" t="n">
-        <v>2.063519307971001</v>
+        <v>2.085890746116638</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.5232744216918948</v>
+        <v>-0.6001354455947877</v>
       </c>
       <c r="B3" t="n">
-        <v>2.33260555267334</v>
+        <v>2.425701588392258</v>
       </c>
       <c r="C3" t="n">
-        <v>1.824701523780822</v>
+        <v>1.942269176244736</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.7410809755325318</v>
+        <v>-0.4221334457397461</v>
       </c>
       <c r="B4" t="n">
-        <v>2.134066888689995</v>
+        <v>2.401677787303925</v>
       </c>
       <c r="C4" t="n">
-        <v>1.285716485977173</v>
+        <v>1.923809313774109</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.2835536479949948</v>
+        <v>-0.4831114292144776</v>
       </c>
       <c r="B5" t="n">
-        <v>1.980954867601395</v>
+        <v>2.420794081687927</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2343389749526972</v>
+        <v>2.053104478120804</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.529338419437408</v>
+        <v>-0.4990121841430664</v>
       </c>
       <c r="B6" t="n">
-        <v>2.245944246649742</v>
+        <v>2.45754919052124</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1200629770755768</v>
+        <v>2.050947427749634</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.762292957305908</v>
+        <v>-0.4582573175430297</v>
       </c>
       <c r="B7" t="n">
-        <v>1.919589138031006</v>
+        <v>2.450900214910507</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.2954926252365113</v>
+        <v>1.956571793556213</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-3.197947156429292</v>
+        <v>-0.5409791469573973</v>
       </c>
       <c r="B8" t="n">
-        <v>1.681933805346489</v>
+        <v>2.33053719997406</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.3819067515432834</v>
+        <v>1.996131032705307</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-4.11650104522705</v>
+        <v>-0.6303038597106934</v>
       </c>
       <c r="B9" t="n">
-        <v>1.521171301603317</v>
+        <v>2.39460033774376</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.9332275912165637</v>
+        <v>2.063519307971001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-4.768530690670014</v>
+        <v>-0.5232744216918948</v>
       </c>
       <c r="B10" t="n">
-        <v>1.473171654343605</v>
+        <v>2.33260555267334</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.2953257039189335</v>
+        <v>1.824701523780822</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-2.971992969512948</v>
+        <v>-0.7410809755325318</v>
       </c>
       <c r="B11" t="n">
-        <v>1.761710226535796</v>
+        <v>2.134066888689995</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.3112654983997316</v>
+        <v>1.285716485977173</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-2.837122094631188</v>
+        <v>-0.2835536479949948</v>
       </c>
       <c r="B12" t="n">
-        <v>1.392113929986956</v>
+        <v>1.980954867601395</v>
       </c>
       <c r="C12" t="n">
-        <v>2.611395421624172</v>
+        <v>0.2343389749526972</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.09898402690889618</v>
+        <v>-1.529338419437408</v>
       </c>
       <c r="B13" t="n">
-        <v>2.09258412122727</v>
+        <v>2.245944246649742</v>
       </c>
       <c r="C13" t="n">
-        <v>5.970039045810694</v>
+        <v>0.1200629770755768</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>9.021431350707996</v>
+        <v>-1.762292957305908</v>
       </c>
       <c r="B14" t="n">
-        <v>3.897843426465977</v>
+        <v>1.919589138031006</v>
       </c>
       <c r="C14" t="n">
-        <v>2.894297271966933</v>
+        <v>-0.2954926252365113</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3.752513694763174</v>
+        <v>-3.197947156429292</v>
       </c>
       <c r="B15" t="n">
-        <v>1.26214294433594</v>
+        <v>1.681933805346489</v>
       </c>
       <c r="C15" t="n">
-        <v>2.215038943290709</v>
+        <v>-0.3819067515432834</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.8335286378860537</v>
+        <v>-4.11650104522705</v>
       </c>
       <c r="B16" t="n">
-        <v>2.680000334978103</v>
+        <v>1.521171301603317</v>
       </c>
       <c r="C16" t="n">
-        <v>1.48247443139553</v>
+        <v>-0.9332275912165637</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.149217176437378</v>
+        <v>-4.768530690670014</v>
       </c>
       <c r="B17" t="n">
-        <v>2.79909211397171</v>
+        <v>1.473171654343605</v>
       </c>
       <c r="C17" t="n">
-        <v>1.387107414007188</v>
+        <v>-0.2953257039189335</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2.04998896121979</v>
+        <v>-2.971992969512948</v>
       </c>
       <c r="B18" t="n">
-        <v>3.530032843351366</v>
+        <v>1.761710226535796</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.8531217783689553</v>
+        <v>-0.3112654983997316</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.119726562500003</v>
+        <v>-2.837122094631188</v>
       </c>
       <c r="B19" t="n">
-        <v>1.84428286552429</v>
+        <v>1.392113929986956</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8842907547950768</v>
+        <v>2.611395421624172</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.4374212741851807</v>
+        <v>0.09898402690889618</v>
       </c>
       <c r="B20" t="n">
-        <v>2.572291845083237</v>
+        <v>2.09258412122727</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7996354326605797</v>
+        <v>5.970039045810694</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>9.021431350707996</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3.897843426465977</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2.894297271966933</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>3.752513694763174</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.26214294433594</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.215038943290709</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.8335286378860537</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2.680000334978103</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.48247443139553</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1.149217176437378</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2.79909211397171</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.387107414007188</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2.04998896121979</v>
+      </c>
+      <c r="B25" t="n">
+        <v>3.530032843351366</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.8531217783689553</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.119726562500003</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.84428286552429</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.8842907547950768</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.4374212741851807</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2.572291845083237</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.7996354326605797</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
         <v>0.3087260723114021</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B28" t="n">
         <v>2.726021051406861</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C28" t="n">
         <v>0.5522446408867842</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.1567803621292113</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2.781254351139069</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.9996474064886576</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.246018409729004</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2.646198272705077</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.203094172477722</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.4407022714614867</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2.732884711027145</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.124532252550125</v>
       </c>
     </row>
   </sheetData>
